--- a/data/docs/csv/g_type.xlsx
+++ b/data/docs/csv/g_type.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHRDI-05\Desktop\project_hotel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\workspace-jsp\project_hotel\data\docs\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -980,10 +980,13 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
